--- a/Mahesh N/Mahesh N.xlsx
+++ b/Mahesh N/Mahesh N.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Chandrayan_3" localSheetId="1">Data!$C$2:$C$17</definedName>
     <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Data!$D$2:$D$17</definedName>
-    <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$3</definedName>
+    <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
   <si>
     <t>Version</t>
   </si>
@@ -353,169 +353,283 @@
     <t>Mpp Approval</t>
   </si>
   <si>
+    <t>SW MPP-TPT Module</t>
+  </si>
+  <si>
+    <t>Ashik S Manjunath</t>
+  </si>
+  <si>
+    <t>TPT -EPP-BPP Project Backlogs</t>
+  </si>
+  <si>
+    <t>Github admin settings</t>
+  </si>
+  <si>
+    <t>SW MPP-TPR Module</t>
+  </si>
+  <si>
+    <t>Yogesh V</t>
+  </si>
+  <si>
+    <t>C3_Branching</t>
+  </si>
+  <si>
+    <t>SW C3-TPT Module</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mahesh N</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>SW C3-TPR Module</t>
+  </si>
+  <si>
+    <t>Everest(C2Gen2)</t>
+  </si>
+  <si>
+    <t>Balamurugan M</t>
+  </si>
+  <si>
+    <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>System DB Info Front End</t>
+  </si>
+  <si>
+    <t>MPP-TPR Backlog</t>
+  </si>
+  <si>
+    <t>Sivan Perumal Pitchaiah</t>
+  </si>
+  <si>
+    <t>Calibrator-Proto</t>
+  </si>
+  <si>
+    <t>SW Backlogs - Auto CI testing</t>
+  </si>
+  <si>
+    <t>SW Tasks - CTS 2.1</t>
+  </si>
+  <si>
+    <t>Pallavi M.H.</t>
+  </si>
+  <si>
+    <t>SW Calibration Tasks</t>
+  </si>
+  <si>
+    <t>Apply the CI testing scope and test coverage framework to all modules</t>
+  </si>
+  <si>
+    <t>25W - Google Tech Tryout</t>
+  </si>
+  <si>
+    <t>Taranga Naik</t>
+  </si>
+  <si>
+    <t>SW UI - Refactor</t>
+  </si>
+  <si>
+    <t>SW Refactor June</t>
+  </si>
+  <si>
+    <t>Hemalatha</t>
+  </si>
+  <si>
+    <t>SW UI Backlogs</t>
+  </si>
+  <si>
+    <t>Zoho API Scripts</t>
+  </si>
+  <si>
+    <t>V2.1 related CR to be included in our product</t>
+  </si>
+  <si>
+    <t>Guruprasad Thyagaraja Charya</t>
+  </si>
+  <si>
+    <t>SW Integration tasks</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>SW Support and Inter Dependencies</t>
+  </si>
+  <si>
+    <t>Manjunath(SW)</t>
+  </si>
+  <si>
+    <t>SW BE Development</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>SW Backlogs</t>
+  </si>
+  <si>
+    <t>Balaji s.m</t>
+  </si>
+  <si>
+    <t>Spec Understanding</t>
+  </si>
+  <si>
+    <t>C3/C2 QA Automation Tasks</t>
+  </si>
+  <si>
     <t>SW-Devops-Tools</t>
   </si>
   <si>
-    <t>Ashik S Manjunath</t>
-  </si>
-  <si>
-    <t>TPT -EPP-BPP Project Backlogs</t>
-  </si>
-  <si>
-    <t>Github admin settings</t>
+    <t>Jitendra Prabhu L</t>
+  </si>
+  <si>
+    <t>C2V Automation tool</t>
+  </si>
+  <si>
+    <t>Spec 2.0.1 improvements</t>
+  </si>
+  <si>
+    <t>Harish R (SW-UI)</t>
+  </si>
+  <si>
+    <t>NOTALS</t>
+  </si>
+  <si>
+    <t>Mark steev N</t>
+  </si>
+  <si>
+    <t>SW Assets</t>
+  </si>
+  <si>
+    <t>Nithish Vishal</t>
+  </si>
+  <si>
+    <t>SW CRSL Tasklist</t>
+  </si>
+  <si>
+    <t>DEEPAK P</t>
+  </si>
+  <si>
+    <t>Thermal Management</t>
+  </si>
+  <si>
+    <t>Sandeep Manojkumar</t>
+  </si>
+  <si>
+    <t>Power Modes</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>SW DSL Tasklist</t>
+  </si>
+  <si>
+    <t>JAVAKAR T</t>
+  </si>
+  <si>
+    <t>SW Shared Modules</t>
+  </si>
+  <si>
+    <t>Karthick R</t>
+  </si>
+  <si>
+    <t>SW tasks</t>
+  </si>
+  <si>
+    <t>Somasundaram S</t>
+  </si>
+  <si>
+    <t>SW Server App Dev</t>
+  </si>
+  <si>
+    <t>Sai Trinadh Pavuluri</t>
+  </si>
+  <si>
+    <t>MPP SW UI Dev</t>
+  </si>
+  <si>
+    <t>Sudharsanan</t>
+  </si>
+  <si>
+    <t>Sw Integration</t>
+  </si>
+  <si>
+    <t>Pranay Nagpure Dilip</t>
   </si>
   <si>
     <t>SW Development</t>
   </si>
   <si>
-    <t>Yogesh V</t>
-  </si>
-  <si>
-    <t>C3_Branching</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Mahesh N</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>Everest(C2Gen2)</t>
-  </si>
-  <si>
-    <t>Balamurugan M</t>
-  </si>
-  <si>
-    <t>SW CTS Dev</t>
-  </si>
-  <si>
-    <t>System DB Info Front End</t>
-  </si>
-  <si>
-    <t>Sivan Perumal Pitchaiah</t>
-  </si>
-  <si>
-    <t>Calibrator-Proto</t>
-  </si>
-  <si>
-    <t>SW Backlogs - Auto CI testing</t>
-  </si>
-  <si>
-    <t>Pallavi M.H.</t>
-  </si>
-  <si>
-    <t>SW Calibration Tasks</t>
-  </si>
-  <si>
-    <t>Apply the CI testing scope and test coverage framework to all modules</t>
-  </si>
-  <si>
-    <t>Taranga Naik</t>
-  </si>
-  <si>
-    <t>SW UI - Refactor</t>
-  </si>
-  <si>
-    <t>Hemalatha</t>
-  </si>
-  <si>
-    <t>SW UI Backlogs</t>
-  </si>
-  <si>
-    <t>Zoho API Scripts</t>
-  </si>
-  <si>
-    <t>Guruprasad Thyagaraja Charya</t>
-  </si>
-  <si>
-    <t>SW Integration tasks</t>
-  </si>
-  <si>
-    <t>Backlogs</t>
-  </si>
-  <si>
-    <t>Manjunath(SW)</t>
-  </si>
-  <si>
-    <t>SW BE Development</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Balaji s.m</t>
-  </si>
-  <si>
-    <t>Spec Understanding</t>
-  </si>
-  <si>
-    <t>C3/C2 QA Automation Tasks</t>
-  </si>
-  <si>
-    <t>Jitendra Prabhu L</t>
-  </si>
-  <si>
-    <t>C2V Automation tool</t>
-  </si>
-  <si>
-    <t>Harish R (SW-UI)</t>
-  </si>
-  <si>
-    <t>Mark steev N</t>
-  </si>
-  <si>
-    <t>Nithish Vishal</t>
-  </si>
-  <si>
-    <t>DEEPAK P</t>
-  </si>
-  <si>
-    <t>Sandeep Manojkumar</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
-  </si>
-  <si>
-    <t>JAVAKAR T</t>
-  </si>
-  <si>
-    <t>Karthick R</t>
-  </si>
-  <si>
-    <t>Somasundaram S</t>
-  </si>
-  <si>
-    <t>Sai Trinadh Pavuluri</t>
-  </si>
-  <si>
-    <t>Sudharsanan</t>
-  </si>
-  <si>
-    <t>Pranay Nagpure Dilip</t>
-  </si>
-  <si>
     <t>Hari Sundar</t>
   </si>
   <si>
+    <t>SW Unit testing</t>
+  </si>
+  <si>
     <t>Saksham (SW-UI)</t>
   </si>
   <si>
+    <t>APP refactor - C3/MPP/BPP/EPP for TPT/TPR</t>
+  </si>
+  <si>
     <t>Karmukilan KT</t>
   </si>
   <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
     <t>Madankumar K</t>
   </si>
   <si>
     <t>Ramanaa S</t>
   </si>
   <si>
+    <t>CTS mapping</t>
+  </si>
+  <si>
     <t>Chandra Shekar R</t>
   </si>
   <si>
+    <t>MPP-TPT Synthetic File Simulation</t>
+  </si>
+  <si>
     <t>Addanki Krishnaprasad</t>
+  </si>
+  <si>
+    <t>Remaining MPP TPT tasks by July</t>
+  </si>
+  <si>
+    <t>June End Target</t>
+  </si>
+  <si>
+    <t>CTS - TPR test case development</t>
+  </si>
+  <si>
+    <t>CTS - MPP TPT test case development</t>
+  </si>
+  <si>
+    <t>TPT SW</t>
+  </si>
+  <si>
+    <t>SW Refactor backlogs</t>
+  </si>
+  <si>
+    <t>Integrate Calibration SW modules for MPP</t>
+  </si>
+  <si>
+    <t>SW_Tasks</t>
+  </si>
+  <si>
+    <t>CTS - TPR FW Support Task</t>
+  </si>
+  <si>
+    <t>Software Protocol Implementation (TPR &amp; TPT)</t>
   </si>
 </sst>
 </file>
@@ -720,32 +834,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1232,10 +1346,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1603,45 +1716,45 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:7">
-      <c r="E7" s="9"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="9"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1654,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1681,49 +1794,49 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:25">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -1731,112 +1844,112 @@
       <c r="Y1"/>
     </row>
     <row r="2" customFormat="1" spans="8:20">
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" customFormat="1" spans="8:20">
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="8:20">
-      <c r="H4" s="17"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="H4" s="16"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="8:20">
-      <c r="H5" s="17"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="H5" s="16"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="8:20">
-      <c r="H6" s="17"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="H6" s="16"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="8:20">
-      <c r="H7" s="17"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="H7" s="16"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="8:8">
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" customFormat="1" spans="8:8">
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" customFormat="1" spans="8:8">
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" customFormat="1" spans="8:8">
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" customFormat="1" spans="8:8">
-      <c r="H12" s="17"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" customFormat="1" spans="8:8">
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" customFormat="1" spans="8:8">
-      <c r="H14" s="17"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" customFormat="1" spans="8:8">
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" customFormat="1" spans="8:8">
-      <c r="H16" s="17"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" customFormat="1" spans="8:8">
-      <c r="H17" s="17"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" customFormat="1" spans="8:8">
-      <c r="H18" s="17"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" customFormat="1" spans="8:8">
-      <c r="H19" s="17"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" customFormat="1" spans="8:8">
-      <c r="H20" s="17"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" customFormat="1" spans="8:8">
-      <c r="H21" s="17"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" customFormat="1" spans="8:8">
-      <c r="H22" s="17"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" customFormat="1" spans="8:8">
-      <c r="H23" s="17"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" customFormat="1" spans="8:8">
-      <c r="H24" s="17"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" customFormat="1" spans="8:8">
-      <c r="H25" s="17"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" customFormat="1" spans="8:8">
-      <c r="H26" s="17"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" customFormat="1" spans="8:8">
-      <c r="H27" s="17"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" customFormat="1" spans="8:8">
-      <c r="H28" s="17"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" customFormat="1" spans="8:8">
-      <c r="H29" s="17"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" customFormat="1" spans="8:8">
-      <c r="H30" s="17"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" customFormat="1" spans="8:8">
-      <c r="H31" s="17"/>
+      <c r="H31" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -1885,150 +1998,150 @@
   </cols>
   <sheetData>
     <row r="3" ht="23.25" spans="4:4">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="5:5">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>12345657</v>
       </c>
     </row>
     <row r="13" spans="5:7">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="3:3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2036,16 +2149,16 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" ht="15.75" spans="2:3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2077,10 +2190,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2143,7 +2256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" customFormat="1" spans="1:5">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2156,217 +2269,356 @@
       <c r="D4" t="s">
         <v>67</v>
       </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:4">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:4">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:5">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:5">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:4">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:4">
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:4">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:4">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:4">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:4">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:2">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:2">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:5">
       <c r="B16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:2">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:5">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:5">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="2:5">
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="2:5">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:5">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:5">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:5">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:5">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:5">
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:5">
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:5">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:5">
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:5">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:5">
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:5">
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:5">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="5:5">
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="5:5">
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="5:5">
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="5:5">
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="5:5">
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="5:5">
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="5:5">
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="5:5">
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="5:5">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="2:2">
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:2">
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="2:2">
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="2:2">
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="2:2">
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:2">
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:2">
-      <c r="B24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:2">
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:2">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:2">
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:2">
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="2:2">
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="2:2">
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:2">
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:2">
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:2">
-      <c r="B33" t="s">
-        <v>115</v>
+    <row r="43" customFormat="1" spans="5:5">
+      <c r="E43" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Mahesh N/Mahesh N.xlsx
+++ b/Mahesh N/Mahesh N.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>TaskID</t>
   </si>
   <si>
-    <t>(Mandatory) Enter a unique task ID.</t>
+    <t>(Mandatory) Enter a unique task ID.(Only when creating subtask)</t>
   </si>
   <si>
     <t>Ownername</t>
@@ -834,6 +834,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -852,14 +860,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1985,8 +1985,8 @@
   <sheetPr/>
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2192,7 +2192,7 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/Mahesh N/Mahesh N.xlsx
+++ b/Mahesh N/Mahesh N.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <definedName name="Chandrayan_3" localSheetId="1">Data!$C$2:$C$17</definedName>
     <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Data!$D$2:$D$17</definedName>
     <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$45</definedName>
+    <definedName name="Sun">Data!$F$2:$F$18</definedName>
+    <definedName name="EverestC2Gen2">Data!$G$2:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="180">
   <si>
     <t>Version</t>
   </si>
@@ -344,6 +346,12 @@
     <t>iCookMPP</t>
   </si>
   <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Everest(C2Gen2)</t>
+  </si>
+  <si>
     <t>Srilakshminarayanan Gokul(SW)</t>
   </si>
   <si>
@@ -356,6 +364,12 @@
     <t>SW MPP-TPT Module</t>
   </si>
   <si>
+    <t>SW Backlogs-C3 TPR</t>
+  </si>
+  <si>
+    <t>PD Merged Optimization - SW</t>
+  </si>
+  <si>
     <t>Ashik S Manjunath</t>
   </si>
   <si>
@@ -368,6 +382,12 @@
     <t>SW MPP-TPR Module</t>
   </si>
   <si>
+    <t>Test JIG FW support</t>
+  </si>
+  <si>
+    <t>TBT SPR PDO Support</t>
+  </si>
+  <si>
     <t>Yogesh V</t>
   </si>
   <si>
@@ -377,7 +397,10 @@
     <t>SW C3-TPT Module</t>
   </si>
   <si>
-    <t>Sun</t>
+    <t>SW BE Support Tasks</t>
+  </si>
+  <si>
+    <t>TBT EPR PDO Support</t>
   </si>
   <si>
     <t>Mahesh N</t>
@@ -389,7 +412,13 @@
     <t>SW C3-TPR Module</t>
   </si>
   <si>
-    <t>Everest(C2Gen2)</t>
+    <t>C3-TPR Project Backlog Tasklist</t>
+  </si>
+  <si>
+    <t>DP Alt Mode CTS V2.1</t>
+  </si>
+  <si>
+    <t>EverestC2Gen2</t>
   </si>
   <si>
     <t>Balamurugan M</t>
@@ -404,6 +433,12 @@
     <t>MPP-TPR Backlog</t>
   </si>
   <si>
+    <t>V2.0 to V2.0.1 upgrade</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>Sivan Perumal Pitchaiah</t>
   </si>
   <si>
@@ -416,6 +451,12 @@
     <t>SW Tasks - CTS 2.1</t>
   </si>
   <si>
+    <t>[FW:SW] : CTS implementation</t>
+  </si>
+  <si>
+    <t>PDM r1.4 v6 CTS support</t>
+  </si>
+  <si>
     <t>Pallavi M.H.</t>
   </si>
   <si>
@@ -428,6 +469,12 @@
     <t>25W - Google Tech Tryout</t>
   </si>
   <si>
+    <t>SW Support</t>
+  </si>
+  <si>
+    <t>PDM CTS Ver1.5 Support</t>
+  </si>
+  <si>
     <t>Taranga Naik</t>
   </si>
   <si>
@@ -437,6 +484,12 @@
     <t>SW Refactor June</t>
   </si>
   <si>
+    <t>SW Development</t>
+  </si>
+  <si>
+    <t>Equipment Handling Document</t>
+  </si>
+  <si>
     <t>Hemalatha</t>
   </si>
   <si>
@@ -449,6 +502,12 @@
     <t>V2.1 related CR to be included in our product</t>
   </si>
   <si>
+    <t>Software Development[TPT]</t>
+  </si>
+  <si>
+    <t>C2 Automation</t>
+  </si>
+  <si>
     <t>Guruprasad Thyagaraja Charya</t>
   </si>
   <si>
@@ -461,18 +520,27 @@
     <t>SW Support and Inter Dependencies</t>
   </si>
   <si>
+    <t>SW Optimization</t>
+  </si>
+  <si>
+    <t>C2 EPR SW tasks</t>
+  </si>
+  <si>
     <t>Manjunath(SW)</t>
   </si>
   <si>
     <t>SW BE Development</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>SW Backlogs</t>
   </si>
   <si>
+    <t>1.3.3 Test Validation -SW</t>
+  </si>
+  <si>
+    <t>Calibration Tasks Plan</t>
+  </si>
+  <si>
     <t>Balaji s.m</t>
   </si>
   <si>
@@ -485,6 +553,9 @@
     <t>SW-Devops-Tools</t>
   </si>
   <si>
+    <t>JSON Report viewer</t>
+  </si>
+  <si>
     <t>Jitendra Prabhu L</t>
   </si>
   <si>
@@ -494,18 +565,27 @@
     <t>Spec 2.0.1 improvements</t>
   </si>
   <si>
+    <t>SW design doc</t>
+  </si>
+  <si>
     <t>Harish R (SW-UI)</t>
   </si>
   <si>
     <t>NOTALS</t>
   </si>
   <si>
+    <t>UI Automation Test script dev</t>
+  </si>
+  <si>
     <t>Mark steev N</t>
   </si>
   <si>
     <t>SW Assets</t>
   </si>
   <si>
+    <t>C3 Application Validator</t>
+  </si>
+  <si>
     <t>Nithish Vishal</t>
   </si>
   <si>
@@ -518,6 +598,9 @@
     <t>Thermal Management</t>
   </si>
   <si>
+    <t>Ui Changes/update based on Team's feedback</t>
+  </si>
+  <si>
     <t>Sandeep Manojkumar</t>
   </si>
   <si>
@@ -561,9 +644,6 @@
   </si>
   <si>
     <t>Pranay Nagpure Dilip</t>
-  </si>
-  <si>
-    <t>SW Development</t>
   </si>
   <si>
     <t>Hari Sundar</t>
@@ -1767,8 +1847,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1985,7 +2065,7 @@
   <sheetPr/>
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2190,22 +2270,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="41.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2221,404 +2303,494 @@
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:5">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:5">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:5">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:7">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:7">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:5">
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:5">
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:5">
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:5">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:5">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:5">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:5">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:5">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="2:5">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="5:5">
       <c r="E34" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="5:5">
       <c r="E35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="5:5">
       <c r="E36" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="5:5">
       <c r="E37" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="5:5">
       <c r="E38" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="5:5">
       <c r="E39" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="5:5">
       <c r="E40" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="5:5">
       <c r="E41" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="5:5">
       <c r="E42" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="5:5">
       <c r="E43" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Mahesh N/Mahesh N.xlsx
+++ b/Mahesh N/Mahesh N.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="183">
   <si>
     <t>Version</t>
   </si>
@@ -60,37 +60,16 @@
     <t>TaskName</t>
   </si>
   <si>
+    <t>SubTask(If required)</t>
+  </si>
+  <si>
     <t>TaskDescrption</t>
   </si>
   <si>
     <t>Task type</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(require only  for subtask create)</t>
-    </r>
-  </si>
-  <si>
-    <t>AssigneeName</t>
+    <t>OwnerName</t>
   </si>
   <si>
     <t>EstimationTime(hrs-int)</t>
@@ -123,46 +102,55 @@
     <t>Example</t>
   </si>
   <si>
-    <t>(Mandatory) Enter the task name.</t>
-  </si>
-  <si>
-    <t>Task creation through Zoho automation tool</t>
+    <t>(Mandatory)Serial number</t>
+  </si>
+  <si>
+    <t>Tasks serial number mandatory to break the loop of empty rows</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the project name.</t>
+  </si>
+  <si>
+    <t>Chandrayan 3</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task list name.</t>
+  </si>
+  <si>
+    <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task name.</t>
+  </si>
+  <si>
+    <t>Task 1 for Chandrayan 3 project</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the subtask name for the above row task</t>
+  </si>
+  <si>
+    <t>Subtask1 for Task1</t>
+  </si>
+  <si>
+    <t>(Optional) Enter a brief task description.</t>
   </si>
   <si>
     <t>TaskDescription</t>
   </si>
   <si>
-    <t>(Mandatory) Enter a brief task description.</t>
-  </si>
-  <si>
-    <t>Using API and Excel input...</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the project name.</t>
-  </si>
-  <si>
-    <t>Chandrayan 3</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task list name.</t>
-  </si>
-  <si>
-    <t>Development Tasks</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a unique task ID.(Only when creating subtask)</t>
-  </si>
-  <si>
-    <t>Ownername</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task owner.</t>
+    <t>(Mandatory) Enter the task type (Task/SubTask)</t>
+  </si>
+  <si>
+    <t>Task/SubTask</t>
+  </si>
+  <si>
+    <t>(Optional) Specify the task owner.</t>
   </si>
   <si>
     <t>Mahesh</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the estimation time for an task in hours</t>
   </si>
   <si>
     <t>StartDate</t>
@@ -331,6 +319,9 @@
     <t>Name the Excel file after your Zoho account username, which will be used to extract your email address for sending task creation summaries via email notifications</t>
   </si>
   <si>
+    <t xml:space="preserve"> Please ensure the Start Date (m-d-y) and Due Date (m-d-y) are in M-D-Y format, and that the Due Date is later than the Start Date</t>
+  </si>
+  <si>
     <t>ProjectNames</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
   </si>
   <si>
     <t>Balamurugan M</t>
-  </si>
-  <si>
-    <t>SW CTS Dev</t>
   </si>
   <si>
     <t>System DB Info Front End</t>
@@ -762,6 +750,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.65"/>
@@ -914,14 +909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,14 +925,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,14 +947,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1296,55 +1289,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,74 +1349,77 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1438,13 +1431,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1452,8 +1446,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1796,24 +1790,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" s="8"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="8"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="5:7">
@@ -1848,7 +1842,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1857,8 +1851,8 @@
     <col min="2" max="2" width="23.3428571428571" customWidth="1"/>
     <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="11.047619047619" customWidth="1"/>
-    <col min="7" max="7" width="32.0476190476191" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="14.6571428571429" customWidth="1"/>
     <col min="8" max="8" width="15.5238095238095" customWidth="1"/>
     <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
     <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
@@ -1874,49 +1868,49 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:25">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:25">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -1924,132 +1918,132 @@
       <c r="Y1"/>
     </row>
     <row r="2" customFormat="1" spans="8:20">
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" customFormat="1" spans="8:20">
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="8:20">
-      <c r="H4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="8:20">
-      <c r="H5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="8:20">
-      <c r="H6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="8:20">
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="8:8">
-      <c r="H8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" customFormat="1" spans="8:8">
-      <c r="H9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" customFormat="1" spans="8:8">
-      <c r="H10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customFormat="1" spans="8:8">
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="1" spans="8:8">
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="1" spans="8:8">
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="1" spans="8:8">
-      <c r="H14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" customFormat="1" spans="8:8">
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="1" spans="8:8">
-      <c r="H16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="1" spans="8:8">
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" customFormat="1" spans="8:8">
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" customFormat="1" spans="8:8">
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="1" spans="8:8">
-      <c r="H20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" customFormat="1" spans="8:8">
-      <c r="H21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" customFormat="1" spans="8:8">
-      <c r="H22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" customFormat="1" spans="8:8">
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" customFormat="1" spans="8:8">
-      <c r="H24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" customFormat="1" spans="8:8">
-      <c r="H25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" customFormat="1" spans="8:8">
-      <c r="H26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" customFormat="1" spans="8:8">
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" customFormat="1" spans="8:8">
-      <c r="H28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" customFormat="1" spans="8:8">
-      <c r="H29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" customFormat="1" spans="8:8">
-      <c r="H30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" customFormat="1" spans="8:8">
-      <c r="H31" s="16"/>
+      <c r="H31" s="17"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
-      <formula1>Data!$A$2:$A$8</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Task,SubTask"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
-      <formula1>Data!$B$2:$B$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
       <formula1>"Low,Medium,High"</formula1>
@@ -2063,10 +2057,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G26"/>
+  <dimension ref="B3:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2077,17 +2071,19 @@
     <col min="7" max="7" width="60.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="23.25" spans="4:4">
+    <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="5:5">
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="4:7">
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>18</v>
@@ -2099,9 +2095,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" customFormat="1" ht="15.75" spans="4:7">
+      <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>21</v>
@@ -2110,157 +2107,201 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="8" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="5:7">
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="5:7">
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:7">
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:7">
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="5:7">
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:7">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:7">
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="5:7">
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="5:7">
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="5:7">
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="5:7">
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="5:7">
+      <c r="E21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" ht="18.75" spans="3:3">
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15.75" spans="2:4">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="1" ht="15.75" spans="2:3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:3">
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="9" t="s">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:3">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="10">
-        <v>12345657</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" spans="3:3">
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="2:4">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" ht="15.75" spans="2:3">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
+      <c r="C30" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2289,508 +2330,508 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="5:5">
       <c r="E34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="5:5">
       <c r="E35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="5:5">
       <c r="E36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="5:5">
       <c r="E37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="5:5">
       <c r="E38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="5:5">
       <c r="E39" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="5:5">
       <c r="E40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="5:5">
       <c r="E41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="5:5">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="5:5">
       <c r="E43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Mahesh N/Mahesh N.xlsx
+++ b/Mahesh N/Mahesh N.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
   <si>
     <t>Version</t>
   </si>
@@ -322,10 +322,13 @@
     <t xml:space="preserve"> Please ensure the Start Date (m-d-y) and Due Date (m-d-y) are in M-D-Y format, and that the Due Date is later than the Start Date</t>
   </si>
   <si>
+    <t>Sample Format</t>
+  </si>
+  <si>
     <t>ProjectNames</t>
   </si>
   <si>
-    <t>AssigneNames</t>
+    <t>OwnerNames</t>
   </si>
   <si>
     <t xml:space="preserve">Chandrayan 3 </t>
@@ -711,7 +714,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,13 +753,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.65"/>
@@ -909,6 +905,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -923,16 +927,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,12 +951,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1289,52 +1279,55 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,73 +1342,70 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,8 +1427,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1447,7 +1438,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1517,6 +1509,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="6981825"/>
+          <a:ext cx="17049750" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1839,10 +1878,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1868,44 +1907,44 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:25">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:25">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
@@ -2031,19 +2070,28 @@
     <row r="31" customFormat="1" spans="8:8">
       <c r="H31" s="17"/>
     </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="17"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33">
+      <formula1>Data!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
-      <formula1>"Task,SubTask"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H34">
+      <formula1>Data!$B$2:$B$42</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
       <formula1>"Low,Medium,High"</formula1>
@@ -2057,18 +2105,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G30"/>
+  <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="71.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="70.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="65.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="60.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="35.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
@@ -2095,7 +2145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="4:7">
+    <row r="8" customFormat="1" ht="30" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -2152,7 +2202,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2169,7 +2219,7 @@
       <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2191,7 +2241,7 @@
       <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2262,16 +2312,16 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" customFormat="1" ht="15.75" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2297,6 +2347,14 @@
       </c>
       <c r="C30" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2305,6 +2363,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2313,8 +2372,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2330,25 +2389,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2356,482 +2415,482 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="5:5">
       <c r="E34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="5:5">
       <c r="E35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="5:5">
       <c r="E36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="5:5">
       <c r="E37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="5:5">
       <c r="E38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="5:5">
       <c r="E39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="5:5">
       <c r="E40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="5:5">
       <c r="E41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="5:5">
       <c r="E42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="5:5">
       <c r="E43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
